--- a/Camaras trampa/Tablas TODAS LAS FOTOS.xlsx
+++ b/Camaras trampa/Tablas TODAS LAS FOTOS.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/aa631587986ce8df/Documentos/VS Code/Python/Camaras trampa/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="73" documentId="11_04CA1AFD8F0ABA87DCC9B85F8CEF43DC6C6B7150" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8C9934E4-A29D-4759-A700-7827E42B49EA}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-28920" yWindow="5505" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Especie_count" sheetId="1" r:id="rId1"/>
@@ -16,12 +22,28 @@
     <sheet name="freq_by_estacion_binary" sheetId="7" r:id="rId7"/>
     <sheet name="Especie_by_Hour" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Especie_by_Month!$B$1:$O$1</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="63">
   <si>
     <t>Especie</t>
   </si>
@@ -157,12 +179,69 @@
   <si>
     <t>X</t>
   </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -178,6 +257,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -187,7 +279,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -210,28 +302,533 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="36">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{14CA5C6D-669C-4B27-9B11-46A358D91F12}" name="Table1" displayName="Table1" ref="B1:D29" totalsRowShown="0" headerRowDxfId="35" headerRowBorderDxfId="34" tableBorderDxfId="33">
+  <autoFilter ref="B1:D29" xr:uid="{14CA5C6D-669C-4B27-9B11-46A358D91F12}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:D29">
+    <sortCondition descending="1" ref="D1:D29"/>
+  </sortState>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{D5332E57-3A3C-41FB-B354-EB0BEB64E1C4}" name="Especie"/>
+    <tableColumn id="2" xr3:uid="{CEE96961-D7E3-479F-8AD1-2B34974D6E46}" name="Count"/>
+    <tableColumn id="3" xr3:uid="{0CB86401-7CA9-4EBB-9956-33D22E43F596}" name="Frequency" dataDxfId="32" dataCellStyle="Percent"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E217B9FA-9B85-4DF9-BA13-59EB31EC7209}" name="Table2" displayName="Table2" ref="B1:K29" totalsRowShown="0" headerRowDxfId="31" headerRowBorderDxfId="30" tableBorderDxfId="29">
+  <autoFilter ref="B1:K29" xr:uid="{E217B9FA-9B85-4DF9-BA13-59EB31EC7209}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:K29">
+    <sortCondition descending="1" ref="K1:K29"/>
+  </sortState>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{FB289E81-46AB-4256-92BC-1C864F8C44A3}" name="Especie"/>
+    <tableColumn id="2" xr3:uid="{A6F925D7-B3CB-4AA3-A133-D163015F9592}" name="Araucarias" dataDxfId="28"/>
+    <tableColumn id="3" xr3:uid="{3931AEC1-4333-4732-A621-32CE892B2606}" name="CoRaTe" dataDxfId="27"/>
+    <tableColumn id="4" xr3:uid="{E82DEB06-8B6A-47A9-8BD7-BA27FC43365E}" name="CoRaTe Quebrada" dataDxfId="26"/>
+    <tableColumn id="5" xr3:uid="{7E05D914-F85B-4873-A574-791343515025}" name="Lenga" dataDxfId="25"/>
+    <tableColumn id="6" xr3:uid="{138DA837-8391-476C-BAD7-AD685AF4B6D8}" name="Lenga - Pradera" dataDxfId="24"/>
+    <tableColumn id="7" xr3:uid="{68BCC85C-DDC6-47DA-BF41-C151EB03F9A2}" name="RoRaCo Renoval" dataDxfId="23"/>
+    <tableColumn id="8" xr3:uid="{EBA52DC5-6B3C-4D87-BACA-358AE7F62C5E}" name="RoRaCo Río" dataDxfId="22"/>
+    <tableColumn id="9" xr3:uid="{219566A8-D715-42BE-88F9-2DE63BD3BBB6}" name="Santuario de anfibios" dataDxfId="21"/>
+    <tableColumn id="10" xr3:uid="{4EE24210-5668-46EF-ACC3-44D719B6B35E}" name="Column1" dataDxfId="13">
+      <calculatedColumnFormula>SUM(Table2[[#This Row],[Araucarias]:[Santuario de anfibios]])</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{0918CDE4-605C-453E-9B78-30D7EBC0FE74}" name="Table5" displayName="Table5" ref="B1:G29" totalsRowShown="0" headerRowDxfId="20" headerRowBorderDxfId="19" tableBorderDxfId="18">
+  <autoFilter ref="B1:G29" xr:uid="{0918CDE4-605C-453E-9B78-30D7EBC0FE74}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:G29">
+    <sortCondition descending="1" ref="G1:G29"/>
+  </sortState>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{ECEEAC51-E6C9-44A3-B4AB-359C330BAC62}" name="Especie"/>
+    <tableColumn id="2" xr3:uid="{4FD75124-44DF-4316-A8D8-5EABCD2C9E3E}" name="2021"/>
+    <tableColumn id="3" xr3:uid="{CC2687EF-6035-41FD-8471-52BBBF780817}" name="2022"/>
+    <tableColumn id="4" xr3:uid="{A59B9E5F-7996-4E55-BA5B-7A15C32B858F}" name="2023"/>
+    <tableColumn id="5" xr3:uid="{A7D94C25-9338-454D-96DB-F5D062F54266}" name="2024"/>
+    <tableColumn id="6" xr3:uid="{3AA3BB50-46B3-4BEC-AB28-8E7CEEA1DB99}" name="Column1" dataDxfId="12">
+      <calculatedColumnFormula>SUM(Table5[[#This Row],[2021]:[2024]])</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{173E709B-1870-4011-B449-D23EE957F39D}" name="Table4" displayName="Table4" ref="B1:F29" totalsRowShown="0" headerRowDxfId="17" headerRowBorderDxfId="16" tableBorderDxfId="15">
+  <autoFilter ref="B1:F29" xr:uid="{173E709B-1870-4011-B449-D23EE957F39D}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{559B166A-707B-48CF-BE06-D301488C4C8F}" name="Especie"/>
+    <tableColumn id="2" xr3:uid="{68D1486C-C52B-4890-A1DE-82E8941C3345}" name="Invierno"/>
+    <tableColumn id="3" xr3:uid="{1A3228F6-ED08-42E1-8613-581D9C9713DD}" name="Otoño"/>
+    <tableColumn id="4" xr3:uid="{850F6951-06F8-47E1-8541-42168673E740}" name="Primavera"/>
+    <tableColumn id="5" xr3:uid="{641B2872-89F7-43ED-868F-41C6E968AA4D}" name="Verano"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{265BE1A8-80DF-4C09-880A-71AD2E98AAE9}" name="Table6" displayName="Table6" ref="B1:O29" totalsRowShown="0" headerRowDxfId="11">
+  <autoFilter ref="B1:O29" xr:uid="{265BE1A8-80DF-4C09-880A-71AD2E98AAE9}"/>
+  <tableColumns count="14">
+    <tableColumn id="1" xr3:uid="{F39A7E70-9067-44DD-B1BF-33B447F36D29}" name="Especie"/>
+    <tableColumn id="2" xr3:uid="{AA5D6820-F197-41EB-9732-DB57CDE7C4F6}" name="1"/>
+    <tableColumn id="3" xr3:uid="{D280F98F-F639-454C-BE36-CD050C7E1A72}" name="2"/>
+    <tableColumn id="4" xr3:uid="{289A1156-8ED9-4739-A0A3-D86B1D2518CB}" name="3"/>
+    <tableColumn id="5" xr3:uid="{D7BC16BC-00D3-4C64-B778-4B97CFB72CBC}" name="4"/>
+    <tableColumn id="6" xr3:uid="{2455199E-5A74-4248-935C-EF6D921EFFA4}" name="5"/>
+    <tableColumn id="7" xr3:uid="{500D6B1D-C70C-4A3C-AA7E-15ED72639D2E}" name="6"/>
+    <tableColumn id="8" xr3:uid="{049CF511-01F9-4E07-82EF-A9EF165A6C9F}" name="7"/>
+    <tableColumn id="9" xr3:uid="{E7F99FE6-0AE8-4037-8E15-5B9EDC673C06}" name="8"/>
+    <tableColumn id="10" xr3:uid="{4BE1FABE-D77D-4EA8-B6C1-5FFA4686D0F5}" name="9"/>
+    <tableColumn id="11" xr3:uid="{EA2C77A4-37AC-4022-A433-99C71A6FF827}" name="10"/>
+    <tableColumn id="12" xr3:uid="{C71DCEA6-921F-435D-9B9C-7C74810752EA}" name="11"/>
+    <tableColumn id="13" xr3:uid="{4F57FB13-CD3A-4CB4-86B9-A261DAC72C87}" name="12"/>
+    <tableColumn id="14" xr3:uid="{F13042A0-1330-4631-A1A0-6E87A38501DB}" name="Column1">
+      <calculatedColumnFormula>SUM(C2:N2)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C13AC386-FBB8-4667-B5CA-E90699F46D0A}" name="Table3" displayName="Table3" ref="B1:K30" totalsRowShown="0" headerRowDxfId="10" dataDxfId="14">
+  <autoFilter ref="B1:K30" xr:uid="{C13AC386-FBB8-4667-B5CA-E90699F46D0A}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:K29">
+    <sortCondition descending="1" ref="K1:K29"/>
+  </sortState>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{9B995137-E85E-4D74-A6A4-39220E893587}" name="Especie" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{22A20277-67F9-40EE-8BF7-FF894643D6BE}" name="Araucarias" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{72865017-EF34-48C2-9D77-6AA4FF7DC3F1}" name="CoRaTe" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{8CC2BB32-088B-4CF3-9022-B9D9FF937B5B}" name="CoRaTe Quebrada" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{84121DCE-B71A-4E75-B9F2-0A8E2CB42B34}" name="Lenga" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{DFACF700-0943-449A-9969-9AE57E3A904B}" name="Lenga - Pradera" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{6BDBB502-AE2C-4395-8B3C-8B54A9F20A1F}" name="RoRaCo Renoval" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{C2EC091B-3C6E-49B0-8D3B-8DD042B154C0}" name="RoRaCo Río" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{28D5EE51-52B4-443D-9D12-812714F714FC}" name="Santuario de anfibios" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{AED208E1-5BBD-4669-B207-5B82999203E4}" name="Percentage" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -269,7 +866,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -303,6 +900,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -337,9 +935,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -512,81 +1111,88 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:D29"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="11.796875" customWidth="1"/>
+    <col min="4" max="4" width="22.19921875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2">
-        <v>0.258732212160414</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>197</v>
+      </c>
+      <c r="D2" s="2">
+        <v>25.485122897800782</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C3">
-        <v>3</v>
-      </c>
-      <c r="D3">
-        <v>0.388098318240621</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>112</v>
+      </c>
+      <c r="D3" s="2">
+        <v>14.48900388098318</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>0.258732212160414</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>101</v>
+      </c>
+      <c r="D4" s="2">
+        <v>13.065976714100911</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C5">
-        <v>3</v>
-      </c>
-      <c r="D5">
-        <v>0.388098318240621</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>89</v>
+      </c>
+      <c r="D5" s="2">
+        <v>11.513583441138421</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -596,67 +1202,67 @@
       <c r="C6">
         <v>80</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <v>10.34928848641656</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7">
-        <v>0.258732212160414</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>76</v>
+      </c>
+      <c r="D7" s="2">
+        <v>9.8318240620957322</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="C8">
-        <v>3</v>
-      </c>
-      <c r="D8">
-        <v>0.388098318240621</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>24</v>
+      </c>
+      <c r="D8" s="2">
+        <v>3.1047865459249682</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9">
-        <v>0.258732212160414</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>21</v>
+      </c>
+      <c r="D9" s="2">
+        <v>2.7166882276843469</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>0.129366106080207</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>20</v>
+      </c>
+      <c r="D10" s="2">
+        <v>2.58732212160414</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -666,1341 +1272,1468 @@
       <c r="C11">
         <v>8</v>
       </c>
-      <c r="D11">
-        <v>1.034928848641656</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="D11" s="2">
+        <v>1.0349288486416559</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C12">
-        <v>89</v>
-      </c>
-      <c r="D12">
-        <v>11.51358344113842</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>8</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1.0349288486416559</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C13">
-        <v>112</v>
-      </c>
-      <c r="D13">
-        <v>14.48900388098318</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>4</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.51746442432082795</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C14">
-        <v>2</v>
-      </c>
-      <c r="D14">
-        <v>0.258732212160414</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>3</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.38809831824062102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C15">
-        <v>76</v>
-      </c>
-      <c r="D15">
-        <v>9.831824062095732</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>3</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0.38809831824062102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C16">
-        <v>8</v>
-      </c>
-      <c r="D16">
-        <v>1.034928848641656</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>3</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0.38809831824062102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C17">
-        <v>2</v>
-      </c>
-      <c r="D17">
-        <v>0.258732212160414</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>3</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0.38809831824062102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="C18">
-        <v>101</v>
-      </c>
-      <c r="D18">
-        <v>13.06597671410091</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>2</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0.25873221216041398</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C19">
         <v>2</v>
       </c>
-      <c r="D19">
-        <v>0.258732212160414</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="D19" s="2">
+        <v>0.25873221216041398</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C20">
-        <v>20</v>
-      </c>
-      <c r="D20">
-        <v>2.58732212160414</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>2</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0.25873221216041398</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C21">
-        <v>4</v>
-      </c>
-      <c r="D21">
-        <v>0.517464424320828</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>2</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0.25873221216041398</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C22">
-        <v>24</v>
-      </c>
-      <c r="D22">
-        <v>3.104786545924968</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>2</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0.25873221216041398</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C23">
         <v>2</v>
       </c>
-      <c r="D23">
-        <v>0.258732212160414</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="D23" s="2">
+        <v>0.25873221216041398</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C24">
-        <v>3</v>
-      </c>
-      <c r="D24">
-        <v>0.388098318240621</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>2</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0.25873221216041398</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C25">
         <v>2</v>
       </c>
-      <c r="D25">
-        <v>0.258732212160414</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="D25" s="2">
+        <v>0.25873221216041398</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26">
-        <v>0.129366106080207</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>2</v>
+      </c>
+      <c r="D26" s="2">
+        <v>0.25873221216041398</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
-      <c r="D27">
-        <v>0.129366106080207</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="D27" s="2">
+        <v>0.12936610608020699</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C28">
-        <v>197</v>
-      </c>
-      <c r="D28">
-        <v>25.48512289780078</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>1</v>
+      </c>
+      <c r="D28" s="2">
+        <v>0.12936610608020699</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C29">
-        <v>21</v>
-      </c>
-      <c r="D29">
-        <v>2.716688227684347</v>
+        <v>1</v>
+      </c>
+      <c r="D29" s="2">
+        <v>0.12936610608020699</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:J29"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="18.46484375" customWidth="1"/>
+    <col min="3" max="3" width="11.796875" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.53125" customWidth="1"/>
+    <col min="7" max="7" width="15.796875" customWidth="1"/>
+    <col min="8" max="8" width="16.796875" customWidth="1"/>
+    <col min="9" max="9" width="14.46484375" customWidth="1"/>
+    <col min="10" max="10" width="9.1328125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
+    <row r="1" spans="1:11" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="5" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>2</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>29</v>
+      </c>
+      <c r="C2" s="4">
+        <v>67</v>
+      </c>
+      <c r="D2" s="4">
+        <v>39</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4">
+        <v>18</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0</v>
+      </c>
+      <c r="H2" s="4">
+        <v>42</v>
+      </c>
+      <c r="I2" s="4">
+        <v>18</v>
+      </c>
+      <c r="J2" s="4">
+        <v>24</v>
+      </c>
+      <c r="K2" s="4">
+        <f>SUM(Table2[[#This Row],[Araucarias]:[Santuario de anfibios]])</f>
+        <v>208</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>3</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>14</v>
+      </c>
+      <c r="C3" s="4">
+        <v>7</v>
+      </c>
+      <c r="D3" s="4">
+        <v>11</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4">
+        <v>5</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0</v>
+      </c>
+      <c r="H3" s="4">
+        <v>42</v>
+      </c>
+      <c r="I3" s="4">
+        <v>0</v>
+      </c>
+      <c r="J3" s="4">
+        <v>47</v>
+      </c>
+      <c r="K3" s="4">
+        <f>SUM(Table2[[#This Row],[Araucarias]:[Santuario de anfibios]])</f>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4">
         <v>5</v>
       </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>2</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="E4" s="4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="4">
+        <v>6</v>
+      </c>
+      <c r="G4" s="4">
+        <v>1</v>
+      </c>
+      <c r="H4" s="4">
+        <v>38</v>
+      </c>
+      <c r="I4" s="4">
+        <v>11</v>
+      </c>
+      <c r="J4" s="4">
+        <v>38</v>
+      </c>
+      <c r="K4" s="4">
+        <f>SUM(Table2[[#This Row],[Araucarias]:[Santuario de anfibios]])</f>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>2</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>13</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4">
+        <v>58</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4">
+        <v>31</v>
+      </c>
+      <c r="J5" s="4">
+        <v>1</v>
+      </c>
+      <c r="K5" s="4">
+        <f>SUM(Table2[[#This Row],[Araucarias]:[Santuario de anfibios]])</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
+      <c r="C6" s="4">
+        <v>0</v>
+      </c>
+      <c r="D6" s="4">
         <v>5</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
+      <c r="E6" s="4">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4">
         <v>3</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="4">
         <v>72</v>
       </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="J6" s="4">
+        <v>0</v>
+      </c>
+      <c r="K6" s="4">
+        <f>SUM(Table2[[#This Row],[Araucarias]:[Santuario de anfibios]])</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>2</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>16</v>
+      </c>
+      <c r="C7" s="4">
+        <v>26</v>
+      </c>
+      <c r="D7" s="4">
+        <v>6</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0</v>
+      </c>
+      <c r="F7" s="4">
+        <v>19</v>
+      </c>
+      <c r="G7" s="4">
+        <v>1</v>
+      </c>
+      <c r="H7" s="4">
+        <v>20</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0</v>
+      </c>
+      <c r="J7" s="4">
+        <v>4</v>
+      </c>
+      <c r="K7" s="4">
+        <f>SUM(Table2[[#This Row],[Araucarias]:[Santuario de anfibios]])</f>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>2</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>23</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0</v>
+      </c>
+      <c r="D8" s="4">
+        <v>2</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4">
+        <v>4</v>
+      </c>
+      <c r="I8" s="4">
+        <v>18</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0</v>
+      </c>
+      <c r="K8" s="4">
+        <f>SUM(Table2[[#This Row],[Araucarias]:[Santuario de anfibios]])</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0</v>
+      </c>
+      <c r="D9" s="4">
+        <v>2</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0</v>
+      </c>
+      <c r="H9" s="4">
+        <v>1</v>
+      </c>
+      <c r="I9" s="4">
+        <v>15</v>
+      </c>
+      <c r="J9" s="4">
+        <v>3</v>
+      </c>
+      <c r="K9" s="4">
+        <f>SUM(Table2[[#This Row],[Araucarias]:[Santuario de anfibios]])</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>21</v>
+      </c>
+      <c r="C10" s="4">
+        <v>8</v>
+      </c>
+      <c r="D10" s="4">
+        <v>3</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0</v>
+      </c>
+      <c r="F10" s="4">
+        <v>4</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0</v>
+      </c>
+      <c r="H10" s="4">
+        <v>3</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0</v>
+      </c>
+      <c r="J10" s="4">
+        <v>2</v>
+      </c>
+      <c r="K10" s="4">
+        <f>SUM(Table2[[#This Row],[Araucarias]:[Santuario de anfibios]])</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
       </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
+      <c r="C11" s="4">
+        <v>0</v>
+      </c>
+      <c r="D11" s="4">
         <v>4</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="J11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="E11" s="4">
+        <v>0</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0</v>
+      </c>
+      <c r="H11" s="4">
+        <v>1</v>
+      </c>
+      <c r="I11" s="4">
+        <v>1</v>
+      </c>
+      <c r="J11" s="4">
+        <v>2</v>
+      </c>
+      <c r="K11" s="4">
+        <f>SUM(Table2[[#This Row],[Araucarias]:[Santuario de anfibios]])</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>58</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>31</v>
-      </c>
-      <c r="J12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>17</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0</v>
+      </c>
+      <c r="I12" s="4">
+        <v>8</v>
+      </c>
+      <c r="J12" s="4">
+        <v>0</v>
+      </c>
+      <c r="K12" s="4">
+        <f>SUM(Table2[[#This Row],[Araucarias]:[Santuario de anfibios]])</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13">
-        <v>7</v>
-      </c>
-      <c r="D13">
-        <v>11</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>5</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>42</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+        <v>22</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0</v>
+      </c>
+      <c r="H13" s="4">
+        <v>0</v>
+      </c>
+      <c r="I13" s="4">
+        <v>4</v>
+      </c>
+      <c r="J13" s="4">
+        <v>0</v>
+      </c>
+      <c r="K13" s="4">
+        <f>SUM(Table2[[#This Row],[Araucarias]:[Santuario de anfibios]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>1</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+        <v>4</v>
+      </c>
+      <c r="C14" s="4">
+        <v>0</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0</v>
+      </c>
+      <c r="H14" s="4">
+        <v>3</v>
+      </c>
+      <c r="I14" s="4">
+        <v>0</v>
+      </c>
+      <c r="J14" s="4">
+        <v>0</v>
+      </c>
+      <c r="K14" s="4">
+        <f>SUM(Table2[[#This Row],[Araucarias]:[Santuario de anfibios]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15">
-        <v>26</v>
-      </c>
-      <c r="D15">
         <v>6</v>
       </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>19</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="H15">
-        <v>20</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="C15" s="4">
+        <v>0</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0</v>
+      </c>
+      <c r="H15" s="4">
+        <v>2</v>
+      </c>
+      <c r="I15" s="4">
+        <v>1</v>
+      </c>
+      <c r="J15" s="4">
+        <v>0</v>
+      </c>
+      <c r="K15" s="4">
+        <f>SUM(Table2[[#This Row],[Araucarias]:[Santuario de anfibios]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>8</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
+        <v>9</v>
+      </c>
+      <c r="C16" s="4">
+        <v>0</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0</v>
+      </c>
+      <c r="G16" s="4">
+        <v>0</v>
+      </c>
+      <c r="H16" s="4">
+        <v>1</v>
+      </c>
+      <c r="I16" s="4">
+        <v>2</v>
+      </c>
+      <c r="J16" s="4">
+        <v>0</v>
+      </c>
+      <c r="K16" s="4">
+        <f>SUM(Table2[[#This Row],[Araucarias]:[Santuario de anfibios]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
+        <v>25</v>
+      </c>
+      <c r="C17" s="4">
+        <v>0</v>
+      </c>
+      <c r="D17" s="4">
+        <v>1</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0</v>
+      </c>
+      <c r="G17" s="4">
+        <v>0</v>
+      </c>
+      <c r="H17" s="4">
+        <v>1</v>
+      </c>
+      <c r="I17" s="4">
+        <v>1</v>
+      </c>
+      <c r="J17" s="4">
+        <v>0</v>
+      </c>
+      <c r="K17" s="4">
+        <f>SUM(Table2[[#This Row],[Araucarias]:[Santuario de anfibios]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18">
-        <v>5</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>6</v>
-      </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-      <c r="H18">
-        <v>38</v>
-      </c>
-      <c r="I18">
-        <v>11</v>
-      </c>
-      <c r="J18">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
+        <v>3</v>
+      </c>
+      <c r="C18" s="4">
+        <v>0</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0</v>
+      </c>
+      <c r="F18" s="4">
+        <v>0</v>
+      </c>
+      <c r="G18" s="4">
+        <v>0</v>
+      </c>
+      <c r="H18" s="4">
+        <v>2</v>
+      </c>
+      <c r="I18" s="4">
+        <v>0</v>
+      </c>
+      <c r="J18" s="4">
+        <v>0</v>
+      </c>
+      <c r="K18" s="4">
+        <f>SUM(Table2[[#This Row],[Araucarias]:[Santuario de anfibios]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19">
-        <v>2</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
+        <v>5</v>
+      </c>
+      <c r="C19" s="4">
+        <v>0</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0</v>
+      </c>
+      <c r="E19" s="4">
+        <v>0</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0</v>
+      </c>
+      <c r="G19" s="4">
+        <v>0</v>
+      </c>
+      <c r="H19" s="4">
+        <v>2</v>
+      </c>
+      <c r="I19" s="4">
+        <v>0</v>
+      </c>
+      <c r="J19" s="4">
+        <v>0</v>
+      </c>
+      <c r="K19" s="4">
+        <f>SUM(Table2[[#This Row],[Araucarias]:[Santuario de anfibios]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20">
         <v>8</v>
       </c>
-      <c r="D20">
-        <v>3</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>4</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>3</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
+      <c r="C20" s="4">
+        <v>0</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0</v>
+      </c>
+      <c r="E20" s="4">
+        <v>0</v>
+      </c>
+      <c r="F20" s="4">
+        <v>2</v>
+      </c>
+      <c r="G20" s="4">
+        <v>0</v>
+      </c>
+      <c r="H20" s="4">
+        <v>0</v>
+      </c>
+      <c r="I20" s="4">
+        <v>0</v>
+      </c>
+      <c r="J20" s="4">
+        <v>0</v>
+      </c>
+      <c r="K20" s="4">
+        <f>SUM(Table2[[#This Row],[Araucarias]:[Santuario de anfibios]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>4</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
+        <v>10</v>
+      </c>
+      <c r="C21" s="4">
+        <v>0</v>
+      </c>
+      <c r="D21" s="4">
+        <v>1</v>
+      </c>
+      <c r="E21" s="4">
+        <v>0</v>
+      </c>
+      <c r="F21" s="4">
+        <v>0</v>
+      </c>
+      <c r="G21" s="4">
+        <v>0</v>
+      </c>
+      <c r="H21" s="4">
+        <v>0</v>
+      </c>
+      <c r="I21" s="4">
+        <v>0</v>
+      </c>
+      <c r="J21" s="4">
+        <v>1</v>
+      </c>
+      <c r="K21" s="4">
+        <f>SUM(Table2[[#This Row],[Araucarias]:[Santuario de anfibios]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>2</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>4</v>
-      </c>
-      <c r="I22">
-        <v>18</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
+        <v>15</v>
+      </c>
+      <c r="C22" s="4">
+        <v>1</v>
+      </c>
+      <c r="D22" s="4">
+        <v>0</v>
+      </c>
+      <c r="E22" s="4">
+        <v>0</v>
+      </c>
+      <c r="F22" s="4">
+        <v>0</v>
+      </c>
+      <c r="G22" s="4">
+        <v>0</v>
+      </c>
+      <c r="H22" s="4">
+        <v>0</v>
+      </c>
+      <c r="I22" s="4">
+        <v>1</v>
+      </c>
+      <c r="J22" s="4">
+        <v>0</v>
+      </c>
+      <c r="K22" s="4">
+        <f>SUM(Table2[[#This Row],[Araucarias]:[Santuario de anfibios]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>1</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
+        <v>18</v>
+      </c>
+      <c r="C23" s="4">
+        <v>1</v>
+      </c>
+      <c r="D23" s="4">
+        <v>0</v>
+      </c>
+      <c r="E23" s="4">
+        <v>0</v>
+      </c>
+      <c r="F23" s="4">
+        <v>1</v>
+      </c>
+      <c r="G23" s="4">
+        <v>0</v>
+      </c>
+      <c r="H23" s="4">
+        <v>0</v>
+      </c>
+      <c r="I23" s="4">
+        <v>0</v>
+      </c>
+      <c r="J23" s="4">
+        <v>0</v>
+      </c>
+      <c r="K23" s="4">
+        <f>SUM(Table2[[#This Row],[Araucarias]:[Santuario de anfibios]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>1</v>
-      </c>
-      <c r="I24">
-        <v>1</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
+        <v>20</v>
+      </c>
+      <c r="C24" s="4">
+        <v>2</v>
+      </c>
+      <c r="D24" s="4">
+        <v>0</v>
+      </c>
+      <c r="E24" s="4">
+        <v>0</v>
+      </c>
+      <c r="F24" s="4">
+        <v>0</v>
+      </c>
+      <c r="G24" s="4">
+        <v>0</v>
+      </c>
+      <c r="H24" s="4">
+        <v>0</v>
+      </c>
+      <c r="I24" s="4">
+        <v>0</v>
+      </c>
+      <c r="J24" s="4">
+        <v>0</v>
+      </c>
+      <c r="K24" s="4">
+        <f>SUM(Table2[[#This Row],[Araucarias]:[Santuario de anfibios]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25">
-        <v>2</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
+        <v>24</v>
+      </c>
+      <c r="C25" s="4">
+        <v>1</v>
+      </c>
+      <c r="D25" s="4">
+        <v>0</v>
+      </c>
+      <c r="E25" s="4">
+        <v>0</v>
+      </c>
+      <c r="F25" s="4">
+        <v>0</v>
+      </c>
+      <c r="G25" s="4">
+        <v>0</v>
+      </c>
+      <c r="H25" s="4">
+        <v>1</v>
+      </c>
+      <c r="I25" s="4">
+        <v>0</v>
+      </c>
+      <c r="J25" s="4">
+        <v>0</v>
+      </c>
+      <c r="K25" s="4">
+        <f>SUM(Table2[[#This Row],[Araucarias]:[Santuario de anfibios]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>1</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
+        <v>26</v>
+      </c>
+      <c r="C26" s="4">
+        <v>0</v>
+      </c>
+      <c r="D26" s="4">
+        <v>2</v>
+      </c>
+      <c r="E26" s="4">
+        <v>0</v>
+      </c>
+      <c r="F26" s="4">
+        <v>0</v>
+      </c>
+      <c r="G26" s="4">
+        <v>0</v>
+      </c>
+      <c r="H26" s="4">
+        <v>0</v>
+      </c>
+      <c r="I26" s="4">
+        <v>0</v>
+      </c>
+      <c r="J26" s="4">
+        <v>0</v>
+      </c>
+      <c r="K26" s="4">
+        <f>SUM(Table2[[#This Row],[Araucarias]:[Santuario de anfibios]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>28</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
+        <v>11</v>
+      </c>
+      <c r="C27" s="4">
+        <v>0</v>
+      </c>
+      <c r="D27" s="4">
+        <v>0</v>
+      </c>
+      <c r="E27" s="4">
+        <v>0</v>
+      </c>
+      <c r="F27" s="4">
+        <v>0</v>
+      </c>
+      <c r="G27" s="4">
+        <v>0</v>
+      </c>
+      <c r="H27" s="4">
+        <v>0</v>
+      </c>
+      <c r="I27" s="4">
+        <v>0</v>
+      </c>
+      <c r="J27" s="4">
+        <v>1</v>
+      </c>
+      <c r="K27" s="4">
+        <f>SUM(Table2[[#This Row],[Araucarias]:[Santuario de anfibios]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28">
-        <v>67</v>
-      </c>
-      <c r="D28">
-        <v>39</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>18</v>
-      </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>42</v>
-      </c>
-      <c r="I28">
-        <v>18</v>
-      </c>
-      <c r="J28">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
+        <v>27</v>
+      </c>
+      <c r="C28" s="4">
+        <v>0</v>
+      </c>
+      <c r="D28" s="4">
+        <v>0</v>
+      </c>
+      <c r="E28" s="4">
+        <v>0</v>
+      </c>
+      <c r="F28" s="4">
+        <v>0</v>
+      </c>
+      <c r="G28" s="4">
+        <v>0</v>
+      </c>
+      <c r="H28" s="4">
+        <v>1</v>
+      </c>
+      <c r="I28" s="4">
+        <v>0</v>
+      </c>
+      <c r="J28" s="4">
+        <v>0</v>
+      </c>
+      <c r="K28" s="4">
+        <f>SUM(Table2[[#This Row],[Araucarias]:[Santuario de anfibios]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>30</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29">
-        <v>2</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>1</v>
-      </c>
-      <c r="I29">
-        <v>15</v>
-      </c>
-      <c r="J29">
-        <v>3</v>
+        <v>28</v>
+      </c>
+      <c r="C29" s="4">
+        <v>1</v>
+      </c>
+      <c r="D29" s="4">
+        <v>0</v>
+      </c>
+      <c r="E29" s="4">
+        <v>0</v>
+      </c>
+      <c r="F29" s="4">
+        <v>0</v>
+      </c>
+      <c r="G29" s="4">
+        <v>0</v>
+      </c>
+      <c r="H29" s="4">
+        <v>0</v>
+      </c>
+      <c r="I29" s="4">
+        <v>0</v>
+      </c>
+      <c r="J29" s="4">
+        <v>0</v>
+      </c>
+      <c r="K29" s="4">
+        <f>SUM(Table2[[#This Row],[Araucarias]:[Santuario de anfibios]])</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F28" sqref="B1:F28"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="9.46484375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1">
-        <v>1970</v>
-      </c>
-      <c r="D1" s="1">
-        <v>2017</v>
-      </c>
-      <c r="E1" s="1">
-        <v>2021</v>
-      </c>
-      <c r="F1" s="1">
-        <v>2022</v>
-      </c>
-      <c r="G1" s="1">
-        <v>2023</v>
-      </c>
-      <c r="H1" s="1">
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2">
+        <v>24</v>
+      </c>
+      <c r="D2">
+        <v>104</v>
+      </c>
+      <c r="E2">
+        <v>62</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <f>SUM(Table5[[#This Row],[2021]:[2024]])</f>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>26</v>
+      </c>
+      <c r="E3">
+        <v>68</v>
+      </c>
+      <c r="F3">
+        <v>4</v>
+      </c>
+      <c r="G3">
+        <f>SUM(Table5[[#This Row],[2021]:[2024]])</f>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4">
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <v>38</v>
+      </c>
+      <c r="E4">
+        <v>50</v>
+      </c>
+      <c r="F4">
         <v>3</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>3</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
       <c r="G4">
-        <v>2</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <f>SUM(Table5[[#This Row],[2021]:[2024]])</f>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <f>SUM(Table5[[#This Row],[2021]:[2024]])</f>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2008,129 +2741,119 @@
         <v>7</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="E6">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <f>SUM(Table5[[#This Row],[2021]:[2024]])</f>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <f>SUM(Table5[[#This Row],[2021]:[2024]])</f>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <f>SUM(Table5[[#This Row],[2021]:[2024]])</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <f>SUM(Table5[[#This Row],[2021]:[2024]])</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <f>SUM(Table5[[#This Row],[2021]:[2024]])</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2141,131 +2864,121 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <f>SUM(Table5[[#This Row],[2021]:[2024]])</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E12">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <f>SUM(Table5[[#This Row],[2021]:[2024]])</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E13">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>68</v>
-      </c>
-      <c r="H13">
+        <f>SUM(Table5[[#This Row],[2021]:[2024]])</f>
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <f>SUM(Table5[[#This Row],[2021]:[2024]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E15">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>18</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <f>SUM(Table5[[#This Row],[2021]:[2024]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -2274,82 +2987,76 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <f>SUM(Table5[[#This Row],[2021]:[2024]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <f>SUM(Table5[[#This Row],[2021]:[2024]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E18">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>50</v>
-      </c>
-      <c r="H18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <f>SUM(Table5[[#This Row],[2021]:[2024]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -2358,44 +3065,40 @@
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <f>SUM(Table5[[#This Row],[2021]:[2024]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G20">
-        <v>5</v>
-      </c>
-      <c r="H20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <f>SUM(Table5[[#This Row],[2021]:[2024]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -2404,105 +3107,97 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <f>SUM(Table5[[#This Row],[2021]:[2024]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <f>SUM(Table5[[#This Row],[2021]:[2024]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <f>SUM(Table5[[#This Row],[2021]:[2024]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <f>SUM(Table5[[#This Row],[2021]:[2024]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -2511,21 +3206,19 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <f>SUM(Table5[[#This Row],[2021]:[2024]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -2534,24 +3227,22 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26">
         <v>0</v>
       </c>
       <c r="G26">
-        <v>1</v>
-      </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <f>SUM(Table5[[#This Row],[2021]:[2024]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -2560,50 +3251,46 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <f>SUM(Table5[[#This Row],[2021]:[2024]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E28">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="G28">
-        <v>62</v>
-      </c>
-      <c r="H28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <f>SUM(Table5[[#This Row],[2021]:[2024]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -2612,49 +3299,59 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G29">
-        <v>0</v>
-      </c>
-      <c r="H29">
+        <f>SUM(Table5[[#This Row],[2021]:[2024]])</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:F29"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="9.46484375" customWidth="1"/>
+    <col min="3" max="3" width="10.1328125" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" customWidth="1"/>
+    <col min="6" max="6" width="9.19921875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2674,7 +3371,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2694,7 +3391,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2714,7 +3411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2734,7 +3431,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2754,7 +3451,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2774,7 +3471,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2794,7 +3491,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2814,7 +3511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2834,7 +3531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2854,7 +3551,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2874,7 +3571,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2894,7 +3591,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2914,7 +3611,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2934,7 +3631,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2954,7 +3651,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2974,7 +3671,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2994,7 +3691,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -3014,7 +3711,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -3034,7 +3731,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -3054,7 +3751,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -3074,7 +3771,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -3094,7 +3791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -3114,7 +3811,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -3134,7 +3831,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -3154,7 +3851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -3174,7 +3871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -3194,7 +3891,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -3216,205 +3913,228 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U24" sqref="U24"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="15" max="15" width="10.1328125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1">
+      <c r="C1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="O1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2">
+        <v>25</v>
+      </c>
+      <c r="D2">
+        <v>53</v>
+      </c>
+      <c r="E2">
+        <v>17</v>
+      </c>
+      <c r="F2">
+        <v>12</v>
+      </c>
+      <c r="G2">
+        <v>14</v>
+      </c>
+      <c r="H2">
+        <v>21</v>
+      </c>
+      <c r="I2">
+        <v>6</v>
+      </c>
+      <c r="J2">
+        <v>12</v>
+      </c>
+      <c r="K2">
+        <v>11</v>
+      </c>
+      <c r="L2">
+        <v>5</v>
+      </c>
+      <c r="M2">
+        <v>7</v>
+      </c>
+      <c r="N2">
+        <v>21</v>
+      </c>
+      <c r="O2">
+        <f>SUM(C2:N2)</f>
+        <v>204</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3">
+        <v>23</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>24</v>
+      </c>
+      <c r="I3">
+        <v>16</v>
+      </c>
+      <c r="J3">
         <v>3</v>
       </c>
-      <c r="F1" s="1">
+      <c r="K3">
+        <v>11</v>
+      </c>
+      <c r="L3">
+        <v>8</v>
+      </c>
+      <c r="M3">
+        <v>3</v>
+      </c>
+      <c r="N3">
+        <v>11</v>
+      </c>
+      <c r="O3">
+        <f>SUM(C3:N3)</f>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4">
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <v>6</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>6</v>
+      </c>
+      <c r="G4">
+        <v>9</v>
+      </c>
+      <c r="H4">
+        <v>18</v>
+      </c>
+      <c r="I4">
         <v>4</v>
       </c>
-      <c r="G1" s="1">
+      <c r="J4">
         <v>5</v>
       </c>
-      <c r="H1" s="1">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1">
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>28</v>
+      </c>
+      <c r="M4">
+        <v>2</v>
+      </c>
+      <c r="N4">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3">
-        <v>3</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="O4">
+        <f>SUM(C4:N4)</f>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3429,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -3441,10 +4161,14 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>39</v>
+      </c>
+      <c r="O5">
+        <f>SUM(C5:N5)</f>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -3487,66 +4211,74 @@
       <c r="N6">
         <v>29</v>
       </c>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="O6">
+        <f>SUM(C6:N6)</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>5</v>
+      </c>
+      <c r="O7">
+        <f>SUM(C7:N7)</f>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3575,19 +4307,23 @@
       <c r="N8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="O8">
+        <f>SUM(C8:N8)</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -3611,27 +4347,31 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>13</v>
+      </c>
+      <c r="O9">
+        <f>SUM(C9:N9)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -3640,19 +4380,19 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -3661,10 +4401,14 @@
         <v>1</v>
       </c>
       <c r="N10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>2</v>
+      </c>
+      <c r="O10">
+        <f>SUM(C10:N10)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -3707,22 +4451,26 @@
       <c r="N11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:14">
+      <c r="O11">
+        <f>SUM(C11:N11)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C12">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E12">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -3737,7 +4485,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -3749,21 +4497,25 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <f>SUM(C12:N12)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C13">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -3772,42 +4524,46 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <f>SUM(C13:N13)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -3839,110 +4595,122 @@
       <c r="N14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="O14">
+        <f>SUM(C14:N14)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C15">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E15">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <f>SUM(C15:N15)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <f>SUM(C16:N16)</f>
         <v>3</v>
       </c>
-      <c r="E16">
-        <v>5</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -3969,68 +4737,76 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>2</v>
+      </c>
+      <c r="O17">
+        <f>SUM(C17:N17)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="C18">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D18">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H18">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <f>SUM(C18:N18)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -4045,7 +4821,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -4059,19 +4835,23 @@
       <c r="N19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:14">
+      <c r="O19">
+        <f>SUM(C19:N19)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C20">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -4080,45 +4860,49 @@
         <v>0</v>
       </c>
       <c r="G20">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H20">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <f>SUM(C20:N20)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -4147,22 +4931,26 @@
       <c r="N21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:14">
+      <c r="O21">
+        <f>SUM(C21:N21)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C22">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D22">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="E22">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -4189,21 +4977,25 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <f>SUM(C22:N22)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -4235,22 +5027,26 @@
       <c r="N23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:14">
+      <c r="O23">
+        <f>SUM(C23:N23)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -4277,15 +5073,19 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <f>SUM(C24:N24)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -4294,7 +5094,7 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -4321,24 +5121,28 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <f>SUM(C25:N25)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C26">
         <v>0</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -4365,21 +5169,25 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <f>SUM(C26:N26)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="C27">
         <v>0</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -4406,71 +5214,79 @@
         <v>0</v>
       </c>
       <c r="M27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:14">
+      <c r="O27">
+        <f>SUM(C27:N27)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C28">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="D28">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="E28">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G28">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="H28">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="I28">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J28">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="K28">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="L28">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M28">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="N28">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <f>SUM(C28:N28)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -4491,29 +5307,38 @@
         <v>0</v>
       </c>
       <c r="L29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M29">
         <v>0</v>
       </c>
       <c r="N29">
-        <v>13</v>
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <f>SUM(C29:N29)</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L43" sqref="L43"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4542,900 +5367,900 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
+      <c r="C2" s="6">
+        <v>0</v>
+      </c>
+      <c r="D2" s="6">
+        <v>0</v>
+      </c>
+      <c r="E2" s="6">
+        <v>0</v>
+      </c>
+      <c r="F2" s="6">
+        <v>0</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="6">
         <v>1.197604790419162</v>
       </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="I2" s="6">
+        <v>0</v>
+      </c>
+      <c r="J2" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
+      <c r="C3" s="6">
+        <v>0</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0</v>
+      </c>
+      <c r="E3" s="6">
+        <v>0</v>
+      </c>
+      <c r="F3" s="6">
+        <v>0</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0</v>
+      </c>
+      <c r="H3" s="6">
         <v>1.796407185628742</v>
       </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="I3" s="6">
+        <v>0</v>
+      </c>
+      <c r="J3" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
+      <c r="C4" s="6">
+        <v>0</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0</v>
+      </c>
+      <c r="H4" s="6">
         <v>1.197604790419162</v>
       </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="I4" s="6">
+        <v>0</v>
+      </c>
+      <c r="J4" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
+      <c r="C5" s="6">
+        <v>0</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0</v>
+      </c>
+      <c r="H5" s="6">
         <v>1.197604790419162</v>
       </c>
-      <c r="I5">
-        <v>0.546448087431694</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="I5" s="6">
+        <v>0.54644808743169404</v>
+      </c>
+      <c r="J5" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>3.597122302158273</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
+      <c r="C6" s="6">
+        <v>0</v>
+      </c>
+      <c r="D6" s="6">
+        <v>3.5971223021582732</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0</v>
+      </c>
+      <c r="H6" s="6">
         <v>1.796407185628742</v>
       </c>
-      <c r="I6">
-        <v>39.34426229508197</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="I6" s="6">
+        <v>39.344262295081968</v>
+      </c>
+      <c r="J6" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>3.636363636363636</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="C7" s="6">
+        <v>0</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0</v>
+      </c>
+      <c r="F7" s="6">
+        <v>3.6363636363636358</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0</v>
+      </c>
+      <c r="H7" s="6">
+        <v>0</v>
+      </c>
+      <c r="I7" s="6">
+        <v>0</v>
+      </c>
+      <c r="J7" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
+      <c r="C8" s="6">
+        <v>0</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0</v>
+      </c>
+      <c r="H8" s="6">
         <v>0.5988023952095809</v>
       </c>
-      <c r="I8">
-        <v>1.092896174863388</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="I8" s="6">
+        <v>1.0928961748633881</v>
+      </c>
+      <c r="J8" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
       </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0.7194244604316548</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0.8130081300813009</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="C9" s="6">
+        <v>0</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0.71942446043165476</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0</v>
+      </c>
+      <c r="F9" s="6">
+        <v>0</v>
+      </c>
+      <c r="G9" s="6">
+        <v>0</v>
+      </c>
+      <c r="H9" s="6">
+        <v>0</v>
+      </c>
+      <c r="I9" s="6">
+        <v>0</v>
+      </c>
+      <c r="J9" s="6">
+        <v>0.81300813008130091</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
       </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0.8130081300813009</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="C10" s="6">
+        <v>0</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0</v>
+      </c>
+      <c r="E10" s="6">
+        <v>0</v>
+      </c>
+      <c r="F10" s="6">
+        <v>0</v>
+      </c>
+      <c r="G10" s="6">
+        <v>0</v>
+      </c>
+      <c r="H10" s="6">
+        <v>0</v>
+      </c>
+      <c r="I10" s="6">
+        <v>0</v>
+      </c>
+      <c r="J10" s="6">
+        <v>0.81300813008130091</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
       </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
+      <c r="C11" s="6">
+        <v>0</v>
+      </c>
+      <c r="D11" s="6">
         <v>2.877697841726619</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
+      <c r="E11" s="6">
+        <v>0</v>
+      </c>
+      <c r="F11" s="6">
+        <v>0</v>
+      </c>
+      <c r="G11" s="6">
+        <v>0</v>
+      </c>
+      <c r="H11" s="6">
         <v>0.5988023952095809</v>
       </c>
-      <c r="I11">
-        <v>0.546448087431694</v>
-      </c>
-      <c r="J11">
+      <c r="I11" s="6">
+        <v>0.54644808743169404</v>
+      </c>
+      <c r="J11" s="6">
         <v>1.626016260162602</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
       </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>41.72661870503597</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
+      <c r="C12" s="6">
+        <v>0</v>
+      </c>
+      <c r="D12" s="6">
+        <v>41.726618705035968</v>
+      </c>
+      <c r="E12" s="6">
+        <v>0</v>
+      </c>
+      <c r="F12" s="6">
+        <v>0</v>
+      </c>
+      <c r="G12" s="6">
+        <v>0</v>
+      </c>
+      <c r="H12" s="6">
+        <v>0</v>
+      </c>
+      <c r="I12" s="6">
         <v>16.93989071038251</v>
       </c>
-      <c r="J12">
-        <v>0.8130081300813009</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="J12" s="6">
+        <v>0.81300813008130091</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
         <v>14</v>
       </c>
-      <c r="C13">
-        <v>6.086956521739131</v>
-      </c>
-      <c r="D13">
-        <v>7.913669064748201</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>9.090909090909092</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
+      <c r="C13" s="6">
+        <v>6.0869565217391308</v>
+      </c>
+      <c r="D13" s="6">
+        <v>7.9136690647482011</v>
+      </c>
+      <c r="E13" s="6">
+        <v>0</v>
+      </c>
+      <c r="F13" s="6">
+        <v>9.0909090909090917</v>
+      </c>
+      <c r="G13" s="6">
+        <v>0</v>
+      </c>
+      <c r="H13" s="6">
         <v>25.14970059880239</v>
       </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>38.21138211382114</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="I13" s="6">
+        <v>0</v>
+      </c>
+      <c r="J13" s="6">
+        <v>38.211382113821138</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
       </c>
-      <c r="C14">
-        <v>0.8695652173913043</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0.546448087431694</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="C14" s="6">
+        <v>0.86956521739130432</v>
+      </c>
+      <c r="D14" s="6">
+        <v>0</v>
+      </c>
+      <c r="E14" s="6">
+        <v>0</v>
+      </c>
+      <c r="F14" s="6">
+        <v>0</v>
+      </c>
+      <c r="G14" s="6">
+        <v>0</v>
+      </c>
+      <c r="H14" s="6">
+        <v>0</v>
+      </c>
+      <c r="I14" s="6">
+        <v>0.54644808743169404</v>
+      </c>
+      <c r="J14" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
         <v>16</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="6">
         <v>22.60869565217391</v>
       </c>
-      <c r="D15">
-        <v>4.316546762589928</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>34.54545454545455</v>
-      </c>
-      <c r="G15">
+      <c r="D15" s="6">
+        <v>4.3165467625899279</v>
+      </c>
+      <c r="E15" s="6">
+        <v>0</v>
+      </c>
+      <c r="F15" s="6">
+        <v>34.545454545454547</v>
+      </c>
+      <c r="G15" s="6">
         <v>50</v>
       </c>
-      <c r="H15">
-        <v>11.97604790419162</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>3.252032520325204</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="H15" s="6">
+        <v>11.976047904191621</v>
+      </c>
+      <c r="I15" s="6">
+        <v>0</v>
+      </c>
+      <c r="J15" s="6">
+        <v>3.2520325203252041</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
         <v>17</v>
       </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>4.371584699453552</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="C16" s="6">
+        <v>0</v>
+      </c>
+      <c r="D16" s="6">
+        <v>0</v>
+      </c>
+      <c r="E16" s="6">
+        <v>0</v>
+      </c>
+      <c r="F16" s="6">
+        <v>0</v>
+      </c>
+      <c r="G16" s="6">
+        <v>0</v>
+      </c>
+      <c r="H16" s="6">
+        <v>0</v>
+      </c>
+      <c r="I16" s="6">
+        <v>4.3715846994535523</v>
+      </c>
+      <c r="J16" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
       </c>
-      <c r="C17">
-        <v>0.8695652173913043</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>1.818181818181818</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="C17" s="6">
+        <v>0.86956521739130432</v>
+      </c>
+      <c r="D17" s="6">
+        <v>0</v>
+      </c>
+      <c r="E17" s="6">
+        <v>0</v>
+      </c>
+      <c r="F17" s="6">
+        <v>1.8181818181818179</v>
+      </c>
+      <c r="G17" s="6">
+        <v>0</v>
+      </c>
+      <c r="H17" s="6">
+        <v>0</v>
+      </c>
+      <c r="I17" s="6">
+        <v>0</v>
+      </c>
+      <c r="J17" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
         <v>19</v>
       </c>
-      <c r="C18">
-        <v>0.8695652173913043</v>
-      </c>
-      <c r="D18">
-        <v>3.597122302158273</v>
-      </c>
-      <c r="E18">
+      <c r="C18" s="6">
+        <v>0.86956521739130432</v>
+      </c>
+      <c r="D18" s="6">
+        <v>3.5971223021582732</v>
+      </c>
+      <c r="E18" s="6">
         <v>100</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="6">
         <v>10.90909090909091</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="6">
         <v>50</v>
       </c>
-      <c r="H18">
-        <v>22.75449101796407</v>
-      </c>
-      <c r="I18">
-        <v>6.010928961748633</v>
-      </c>
-      <c r="J18">
-        <v>30.89430894308943</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="H18" s="6">
+        <v>22.754491017964071</v>
+      </c>
+      <c r="I18" s="6">
+        <v>6.0109289617486326</v>
+      </c>
+      <c r="J18" s="6">
+        <v>30.894308943089431</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
         <v>20</v>
       </c>
-      <c r="C19">
-        <v>1.739130434782609</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="C19" s="6">
+        <v>1.7391304347826091</v>
+      </c>
+      <c r="D19" s="6">
+        <v>0</v>
+      </c>
+      <c r="E19" s="6">
+        <v>0</v>
+      </c>
+      <c r="F19" s="6">
+        <v>0</v>
+      </c>
+      <c r="G19" s="6">
+        <v>0</v>
+      </c>
+      <c r="H19" s="6">
+        <v>0</v>
+      </c>
+      <c r="I19" s="6">
+        <v>0</v>
+      </c>
+      <c r="J19" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
         <v>21</v>
       </c>
-      <c r="C20">
-        <v>6.956521739130435</v>
-      </c>
-      <c r="D20">
-        <v>2.158273381294964</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>7.272727272727272</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
+      <c r="C20" s="6">
+        <v>6.9565217391304346</v>
+      </c>
+      <c r="D20" s="6">
+        <v>2.1582733812949639</v>
+      </c>
+      <c r="E20" s="6">
+        <v>0</v>
+      </c>
+      <c r="F20" s="6">
+        <v>7.2727272727272716</v>
+      </c>
+      <c r="G20" s="6">
+        <v>0</v>
+      </c>
+      <c r="H20" s="6">
         <v>1.796407185628742</v>
       </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
+      <c r="I20" s="6">
+        <v>0</v>
+      </c>
+      <c r="J20" s="6">
         <v>1.626016260162602</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
         <v>22</v>
       </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>2.185792349726776</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
+      <c r="C21" s="6">
+        <v>0</v>
+      </c>
+      <c r="D21" s="6">
+        <v>0</v>
+      </c>
+      <c r="E21" s="6">
+        <v>0</v>
+      </c>
+      <c r="F21" s="6">
+        <v>0</v>
+      </c>
+      <c r="G21" s="6">
+        <v>0</v>
+      </c>
+      <c r="H21" s="6">
+        <v>0</v>
+      </c>
+      <c r="I21" s="6">
+        <v>2.1857923497267762</v>
+      </c>
+      <c r="J21" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
         <v>23</v>
       </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
+      <c r="C22" s="6">
+        <v>0</v>
+      </c>
+      <c r="D22" s="6">
         <v>1.43884892086331</v>
       </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
+      <c r="E22" s="6">
+        <v>0</v>
+      </c>
+      <c r="F22" s="6">
+        <v>0</v>
+      </c>
+      <c r="G22" s="6">
+        <v>0</v>
+      </c>
+      <c r="H22" s="6">
         <v>2.395209580838324</v>
       </c>
-      <c r="I22">
-        <v>9.836065573770492</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
+      <c r="I22" s="6">
+        <v>9.8360655737704921</v>
+      </c>
+      <c r="J22" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
         <v>24</v>
       </c>
-      <c r="C23">
-        <v>0.8695652173913043</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
+      <c r="C23" s="6">
+        <v>0.86956521739130432</v>
+      </c>
+      <c r="D23" s="6">
+        <v>0</v>
+      </c>
+      <c r="E23" s="6">
+        <v>0</v>
+      </c>
+      <c r="F23" s="6">
+        <v>0</v>
+      </c>
+      <c r="G23" s="6">
+        <v>0</v>
+      </c>
+      <c r="H23" s="6">
         <v>0.5988023952095809</v>
       </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
+      <c r="I23" s="6">
+        <v>0</v>
+      </c>
+      <c r="J23" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
         <v>25</v>
       </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24">
-        <v>0.7194244604316548</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
+      <c r="C24" s="6">
+        <v>0</v>
+      </c>
+      <c r="D24" s="6">
+        <v>0.71942446043165476</v>
+      </c>
+      <c r="E24" s="6">
+        <v>0</v>
+      </c>
+      <c r="F24" s="6">
+        <v>0</v>
+      </c>
+      <c r="G24" s="6">
+        <v>0</v>
+      </c>
+      <c r="H24" s="6">
         <v>0.5988023952095809</v>
       </c>
-      <c r="I24">
-        <v>0.546448087431694</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
+      <c r="I24" s="6">
+        <v>0.54644808743169404</v>
+      </c>
+      <c r="J24" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
       </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25">
+      <c r="C25" s="6">
+        <v>0</v>
+      </c>
+      <c r="D25" s="6">
         <v>1.43884892086331</v>
       </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
+      <c r="E25" s="6">
+        <v>0</v>
+      </c>
+      <c r="F25" s="6">
+        <v>0</v>
+      </c>
+      <c r="G25" s="6">
+        <v>0</v>
+      </c>
+      <c r="H25" s="6">
+        <v>0</v>
+      </c>
+      <c r="I25" s="6">
+        <v>0</v>
+      </c>
+      <c r="J25" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
         <v>27</v>
       </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-      <c r="H26">
+      <c r="C26" s="6">
+        <v>0</v>
+      </c>
+      <c r="D26" s="6">
+        <v>0</v>
+      </c>
+      <c r="E26" s="6">
+        <v>0</v>
+      </c>
+      <c r="F26" s="6">
+        <v>0</v>
+      </c>
+      <c r="G26" s="6">
+        <v>0</v>
+      </c>
+      <c r="H26" s="6">
         <v>0.5988023952095809</v>
       </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
+      <c r="I26" s="6">
+        <v>0</v>
+      </c>
+      <c r="J26" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
         <v>28</v>
       </c>
-      <c r="C27">
-        <v>0.8695652173913043</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
+      <c r="C27" s="6">
+        <v>0.86956521739130432</v>
+      </c>
+      <c r="D27" s="6">
+        <v>0</v>
+      </c>
+      <c r="E27" s="6">
+        <v>0</v>
+      </c>
+      <c r="F27" s="6">
+        <v>0</v>
+      </c>
+      <c r="G27" s="6">
+        <v>0</v>
+      </c>
+      <c r="H27" s="6">
+        <v>0</v>
+      </c>
+      <c r="I27" s="6">
+        <v>0</v>
+      </c>
+      <c r="J27" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
         <v>29</v>
       </c>
-      <c r="C28">
-        <v>58.26086956521739</v>
-      </c>
-      <c r="D28">
-        <v>28.05755395683453</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>32.72727272727273</v>
-      </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="H28">
+      <c r="C28" s="6">
+        <v>58.260869565217391</v>
+      </c>
+      <c r="D28" s="6">
+        <v>28.057553956834528</v>
+      </c>
+      <c r="E28" s="6">
+        <v>0</v>
+      </c>
+      <c r="F28" s="6">
+        <v>32.727272727272727</v>
+      </c>
+      <c r="G28" s="6">
+        <v>0</v>
+      </c>
+      <c r="H28" s="6">
         <v>25.14970059880239</v>
       </c>
-      <c r="I28">
-        <v>9.836065573770492</v>
-      </c>
-      <c r="J28">
-        <v>19.51219512195122</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
+      <c r="I28" s="6">
+        <v>9.8360655737704921</v>
+      </c>
+      <c r="J28" s="6">
+        <v>19.512195121951219</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
         <v>30</v>
       </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29">
+      <c r="C29" s="6">
+        <v>0</v>
+      </c>
+      <c r="D29" s="6">
         <v>1.43884892086331</v>
       </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-      <c r="H29">
+      <c r="E29" s="6">
+        <v>0</v>
+      </c>
+      <c r="F29" s="6">
+        <v>0</v>
+      </c>
+      <c r="G29" s="6">
+        <v>0</v>
+      </c>
+      <c r="H29" s="6">
         <v>0.5988023952095809</v>
       </c>
-      <c r="I29">
-        <v>8.196721311475409</v>
-      </c>
-      <c r="J29">
-        <v>2.439024390243902</v>
+      <c r="I29" s="6">
+        <v>8.1967213114754092</v>
+      </c>
+      <c r="J29" s="6">
+        <v>2.4390243902439019</v>
       </c>
     </row>
   </sheetData>
@@ -5444,586 +6269,794 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:K30"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="9.46484375" customWidth="1"/>
+    <col min="3" max="3" width="11.796875" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" customWidth="1"/>
+    <col min="5" max="5" width="18.19921875" customWidth="1"/>
+    <col min="7" max="7" width="16.1328125" customWidth="1"/>
+    <col min="8" max="8" width="16.796875" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" customWidth="1"/>
+    <col min="10" max="10" width="25.1328125" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A2" s="7">
+        <v>0</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="K2" s="10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A3" s="7">
+        <v>1</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" s="10">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A4" s="7">
+        <v>2</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4" s="10">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A5" s="7">
         <v>3</v>
       </c>
-      <c r="H2" t="s">
+      <c r="B5" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="K2">
+      <c r="D5" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="K5" s="10">
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A6" s="7">
+        <v>4</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="K6" s="10">
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A7" s="7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="K7" s="10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A8" s="7">
+        <v>6</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="K8" s="10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A9" s="7">
+        <v>7</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10">
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A10" s="7">
+        <v>8</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="K10" s="10">
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A11" s="7">
+        <v>9</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10">
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A12" s="7">
+        <v>10</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10">
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A13" s="7">
+        <v>11</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A14" s="7">
+        <v>12</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A15" s="7">
+        <v>13</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="K15" s="10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A16" s="7">
+        <v>14</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A17" s="7">
+        <v>15</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A18" s="7">
+        <v>16</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A19" s="7">
+        <v>17</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10">
         <v>12.5</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A20" s="7">
+        <v>18</v>
+      </c>
+      <c r="B20" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="H3" t="s">
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="K3">
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10">
         <v>12.5</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A21" s="7">
+        <v>19</v>
+      </c>
+      <c r="B21" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H4" t="s">
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="K4">
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10">
         <v>12.5</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" t="s">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A22" s="7">
+        <v>20</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="I5" t="s">
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A23" s="7">
+        <v>21</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="K5">
+      <c r="K23" s="10">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A24" s="7">
+        <v>22</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A25" s="7">
+        <v>23</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A26" s="7">
+        <v>24</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A27" s="7">
         <v>25</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="B27" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A28" s="7">
+        <v>26</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A29" s="7">
+        <v>27</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B30" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" s="12">
+        <f>COUNTIF(C2:C29,"x")</f>
+        <v>10</v>
+      </c>
+      <c r="D30" s="12">
+        <f t="shared" ref="D30:K30" si="0">COUNTIF(D2:D29,"x")</f>
+        <v>13</v>
+      </c>
+      <c r="E30" s="12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F30" s="12">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="D6" t="s">
-        <v>44</v>
-      </c>
-      <c r="H6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I6" t="s">
-        <v>44</v>
-      </c>
-      <c r="K6">
-        <v>37.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" t="s">
-        <v>44</v>
-      </c>
-      <c r="K7">
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H8" t="s">
-        <v>44</v>
-      </c>
-      <c r="I8" t="s">
-        <v>44</v>
-      </c>
-      <c r="K8">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="G30" s="12">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H30" s="12">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="I30" s="12">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="J30" s="12">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="D9" t="s">
-        <v>44</v>
-      </c>
-      <c r="J9" t="s">
-        <v>44</v>
-      </c>
-      <c r="K9">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="J10" t="s">
-        <v>44</v>
-      </c>
-      <c r="K10">
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" t="s">
-        <v>44</v>
-      </c>
-      <c r="H11" t="s">
-        <v>44</v>
-      </c>
-      <c r="I11" t="s">
-        <v>44</v>
-      </c>
-      <c r="J11" t="s">
-        <v>44</v>
-      </c>
-      <c r="K11">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" t="s">
-        <v>44</v>
-      </c>
-      <c r="I12" t="s">
-        <v>44</v>
-      </c>
-      <c r="J12" t="s">
-        <v>44</v>
-      </c>
-      <c r="K12">
-        <v>37.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" t="s">
-        <v>44</v>
-      </c>
-      <c r="F13" t="s">
-        <v>44</v>
-      </c>
-      <c r="H13" t="s">
-        <v>44</v>
-      </c>
-      <c r="J13" t="s">
-        <v>44</v>
-      </c>
-      <c r="K13">
-        <v>62.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" t="s">
-        <v>44</v>
-      </c>
-      <c r="I14" t="s">
-        <v>44</v>
-      </c>
-      <c r="K14">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" t="s">
-        <v>44</v>
-      </c>
-      <c r="F15" t="s">
-        <v>44</v>
-      </c>
-      <c r="G15" t="s">
-        <v>44</v>
-      </c>
-      <c r="H15" t="s">
-        <v>44</v>
-      </c>
-      <c r="J15" t="s">
-        <v>44</v>
-      </c>
-      <c r="K15">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>17</v>
-      </c>
-      <c r="I16" t="s">
-        <v>44</v>
-      </c>
-      <c r="K16">
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" t="s">
-        <v>44</v>
-      </c>
-      <c r="F17" t="s">
-        <v>44</v>
-      </c>
-      <c r="K17">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" t="s">
-        <v>44</v>
-      </c>
-      <c r="E18" t="s">
-        <v>44</v>
-      </c>
-      <c r="F18" t="s">
-        <v>44</v>
-      </c>
-      <c r="G18" t="s">
-        <v>44</v>
-      </c>
-      <c r="H18" t="s">
-        <v>44</v>
-      </c>
-      <c r="I18" t="s">
-        <v>44</v>
-      </c>
-      <c r="J18" t="s">
-        <v>44</v>
-      </c>
-      <c r="K18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" t="s">
-        <v>44</v>
-      </c>
-      <c r="K19">
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" t="s">
-        <v>44</v>
-      </c>
-      <c r="D20" t="s">
-        <v>44</v>
-      </c>
-      <c r="F20" t="s">
-        <v>44</v>
-      </c>
-      <c r="H20" t="s">
-        <v>44</v>
-      </c>
-      <c r="J20" t="s">
-        <v>44</v>
-      </c>
-      <c r="K20">
-        <v>62.5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>22</v>
-      </c>
-      <c r="I21" t="s">
-        <v>44</v>
-      </c>
-      <c r="K21">
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>23</v>
-      </c>
-      <c r="D22" t="s">
-        <v>44</v>
-      </c>
-      <c r="H22" t="s">
-        <v>44</v>
-      </c>
-      <c r="I22" t="s">
-        <v>44</v>
-      </c>
-      <c r="K22">
-        <v>37.5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" t="s">
-        <v>44</v>
-      </c>
-      <c r="H23" t="s">
-        <v>44</v>
-      </c>
-      <c r="K23">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="1">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>44</v>
-      </c>
-      <c r="H24" t="s">
-        <v>44</v>
-      </c>
-      <c r="I24" t="s">
-        <v>44</v>
-      </c>
-      <c r="K24">
-        <v>37.5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="1">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>44</v>
-      </c>
-      <c r="K25">
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26" s="1">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>27</v>
-      </c>
-      <c r="H26" t="s">
-        <v>44</v>
-      </c>
-      <c r="K26">
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="A27" s="1">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
-        <v>28</v>
-      </c>
-      <c r="C27" t="s">
-        <v>44</v>
-      </c>
-      <c r="K27">
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="A28" s="1">
-        <v>26</v>
-      </c>
-      <c r="B28" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28" t="s">
-        <v>44</v>
-      </c>
-      <c r="D28" t="s">
-        <v>44</v>
-      </c>
-      <c r="F28" t="s">
-        <v>44</v>
-      </c>
-      <c r="H28" t="s">
-        <v>44</v>
-      </c>
-      <c r="I28" t="s">
-        <v>44</v>
-      </c>
-      <c r="J28" t="s">
-        <v>44</v>
-      </c>
-      <c r="K28">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29" s="1">
-        <v>27</v>
-      </c>
-      <c r="B29" t="s">
-        <v>30</v>
-      </c>
-      <c r="D29" t="s">
-        <v>44</v>
-      </c>
-      <c r="H29" t="s">
-        <v>44</v>
-      </c>
-      <c r="I29" t="s">
-        <v>44</v>
-      </c>
-      <c r="J29" t="s">
-        <v>44</v>
-      </c>
-      <c r="K29">
-        <v>50</v>
-      </c>
+      <c r="K30" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:Y29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P13" sqref="P13:W13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6100,7 +7133,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -6177,7 +7210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -6254,7 +7287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -6331,7 +7364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -6408,7 +7441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -6485,7 +7518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -6562,7 +7595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -6639,7 +7672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -6716,7 +7749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -6793,7 +7826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -6870,7 +7903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -6947,7 +7980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -7024,7 +8057,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
@@ -7101,7 +8134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
@@ -7178,7 +8211,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
@@ -7255,7 +8288,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
@@ -7332,7 +8365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
@@ -7409,7 +8442,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
@@ -7486,7 +8519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
@@ -7563,7 +8596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
         <v>22</v>
       </c>
@@ -7640,7 +8673,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
         <v>23</v>
       </c>
@@ -7717,7 +8750,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
         <v>24</v>
       </c>
@@ -7794,7 +8827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
         <v>25</v>
       </c>
@@ -7871,7 +8904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
         <v>26</v>
       </c>
@@ -7948,7 +8981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
         <v>27</v>
       </c>
@@ -8025,7 +9058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:25">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
         <v>28</v>
       </c>
@@ -8102,7 +9135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:25">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
         <v>29</v>
       </c>
@@ -8179,7 +9212,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
         <v>30</v>
       </c>
